--- a/source/experiments/result_analysis.xlsx
+++ b/source/experiments/result_analysis.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\TDG Matemáticas\secure-svm\source\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61A9BE3-50C7-4A49-9836-48F23EA66700}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696EE1DD-1CBC-48D3-BD2A-24133F291060}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59365EC7-1685-4DC8-86FF-705BE4135883}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{59365EC7-1685-4DC8-86FF-705BE4135883}"/>
   </bookViews>
   <sheets>
     <sheet name="Model selection" sheetId="1" r:id="rId1"/>
+    <sheet name="Column Experiments" sheetId="2" r:id="rId2"/>
+    <sheet name="Row Experiments" sheetId="3" r:id="rId3"/>
+    <sheet name="Difficulty Experiments" sheetId="4" r:id="rId4"/>
+    <sheet name="Real Experiments" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
   <si>
     <t>Model</t>
   </si>
@@ -53,13 +57,67 @@
   <si>
     <t>Least Squares</t>
   </si>
+  <si>
+    <t>Experiment name</t>
+  </si>
+  <si>
+    <t>Columns</t>
+  </si>
+  <si>
+    <t>Rows</t>
+  </si>
+  <si>
+    <t>Training time - Secure (sec)</t>
+  </si>
+  <si>
+    <t>Training time - Clear (sec)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Accuracy - Clear </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Train Accuracy - Clear </t>
+  </si>
+  <si>
+    <t>Test Accuracy - Secure (sec)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Train Accuracy - Secure (sec)  </t>
+  </si>
+  <si>
+    <t>Class separation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Train Accuracy - Secure </t>
+  </si>
+  <si>
+    <t>Test Accuracy - Secure</t>
+  </si>
+  <si>
+    <t>Train percentage</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>Secure</t>
+  </si>
+  <si>
+    <t>Training time</t>
+  </si>
+  <si>
+    <t>Data sent</t>
+  </si>
+  <si>
+    <t>Global data sent</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -113,13 +171,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2765,16 +2827,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>899160</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2801,16 +2863,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2837,16 +2899,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3173,8 +3235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18DF82E-5A11-4D71-8644-BB844A341599}">
   <dimension ref="B1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3274,4 +3336,419 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBF4646-B330-4EB2-ADAE-391DC1ECED08}">
+  <dimension ref="C1:M4"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:M1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BAADC1-DB68-49C1-9BD8-9D64DC3FC6C6}">
+  <dimension ref="C1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F16:F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437DAEAD-FBFF-41D6-9A07-C729BCDC9FFE}">
+  <dimension ref="C1:N4"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4544C202-F760-48C5-808B-1E418BC4CF42}">
+  <dimension ref="C3:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="7"/>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/source/experiments/result_analysis.xlsx
+++ b/source/experiments/result_analysis.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\TDG Matemáticas\secure-svm\source\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696EE1DD-1CBC-48D3-BD2A-24133F291060}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C11A2A-DC13-408A-A602-FB54C10A91C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{59365EC7-1685-4DC8-86FF-705BE4135883}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{59365EC7-1685-4DC8-86FF-705BE4135883}"/>
   </bookViews>
   <sheets>
     <sheet name="Model selection" sheetId="1" r:id="rId1"/>
-    <sheet name="Column Experiments" sheetId="2" r:id="rId2"/>
-    <sheet name="Row Experiments" sheetId="3" r:id="rId3"/>
+    <sheet name="Row Experiments" sheetId="3" r:id="rId2"/>
+    <sheet name="Column Experiments" sheetId="2" r:id="rId3"/>
     <sheet name="Difficulty Experiments" sheetId="4" r:id="rId4"/>
     <sheet name="Real Experiments" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
   <si>
     <t>Model</t>
   </si>
@@ -79,12 +79,6 @@
     <t xml:space="preserve">Train Accuracy - Clear </t>
   </si>
   <si>
-    <t>Test Accuracy - Secure (sec)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Train Accuracy - Secure (sec)  </t>
-  </si>
-  <si>
     <t>Class separation</t>
   </si>
   <si>
@@ -111,13 +105,32 @@
   <si>
     <t>Global data sent</t>
   </si>
+  <si>
+    <t>test-40r-2c</t>
+  </si>
+  <si>
+    <t>test-50r-2c</t>
+  </si>
+  <si>
+    <t>test-60r-2c</t>
+  </si>
+  <si>
+    <t>test-70r-2c</t>
+  </si>
+  <si>
+    <t>test-80r-2c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Accuracy - Secure </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -136,15 +149,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -167,11 +186,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -182,6 +240,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -265,7 +335,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Model selection'!$F$1</c:f>
+              <c:f>'Model selection'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -286,7 +356,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Model selection'!$B$2:$B$4</c:f>
+              <c:f>'Model selection'!$B$3:$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -303,7 +373,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Model selection'!$F$2:$F$4</c:f>
+              <c:f>'Model selection'!$F$3:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -553,7 +623,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Model selection'!$E$1</c:f>
+              <c:f>'Model selection'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -574,7 +644,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Model selection'!$B$2:$B$4</c:f>
+              <c:f>'Model selection'!$B$3:$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -591,7 +661,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Model selection'!$E$2:$E$4</c:f>
+              <c:f>'Model selection'!$E$3:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -866,7 +936,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Model selection'!$C$1</c:f>
+              <c:f>'Model selection'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -887,7 +957,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Model selection'!$B$2:$B$4</c:f>
+              <c:f>'Model selection'!$B$3:$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -904,7 +974,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Model selection'!$C$2:$C$4</c:f>
+              <c:f>'Model selection'!$C$3:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -931,7 +1001,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Model selection'!$D$1</c:f>
+              <c:f>'Model selection'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -952,7 +1022,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Model selection'!$B$2:$B$4</c:f>
+              <c:f>'Model selection'!$B$3:$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -969,7 +1039,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Model selection'!$D$2:$D$4</c:f>
+              <c:f>'Model selection'!$D$3:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3233,10 +3303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18DF82E-5A11-4D71-8644-BB844A341599}">
-  <dimension ref="B1:G12"/>
+  <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:G4"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3249,83 +3319,83 @@
     <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.82</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.88</v>
-      </c>
-      <c r="E2" s="4">
-        <v>2.71739</v>
-      </c>
-      <c r="F2" s="3">
-        <v>94.512799999999999</v>
-      </c>
-      <c r="G2" s="3">
-        <v>254.59700000000001</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.96</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.82</v>
       </c>
       <c r="D3" s="3">
-        <v>0.98</v>
-      </c>
-      <c r="E3" s="3">
-        <v>476.06200000000001</v>
+        <v>0.88</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2.71739</v>
       </c>
       <c r="F3" s="3">
-        <v>12524</v>
+        <v>94.512799999999999</v>
       </c>
       <c r="G3" s="3">
-        <v>34697.9</v>
+        <v>254.59700000000001</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.98</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.96</v>
       </c>
       <c r="D4" s="3">
         <v>0.98</v>
       </c>
       <c r="E4" s="3">
+        <v>476.06200000000001</v>
+      </c>
+      <c r="F4" s="3">
+        <v>12524</v>
+      </c>
+      <c r="G4" s="3">
+        <v>34697.9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="E5" s="3">
         <v>187.40100000000001</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F5" s="3">
         <v>5194.72</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G5" s="3">
         <v>13879</v>
       </c>
     </row>
@@ -3339,11 +3409,247 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BAADC1-DB68-49C1-9BD8-9D64DC3FC6C6}">
+  <dimension ref="C1:M6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="19">
+        <v>40</v>
+      </c>
+      <c r="E2" s="19">
+        <v>2</v>
+      </c>
+      <c r="F2" s="20">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="G2" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="H2" s="20">
+        <v>0.80636200000000002</v>
+      </c>
+      <c r="I2" s="20">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="J2" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="K2" s="20">
+        <v>368.82900000000001</v>
+      </c>
+      <c r="L2" s="20">
+        <v>4820.46</v>
+      </c>
+      <c r="M2" s="20">
+        <v>13653.2</v>
+      </c>
+    </row>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="3">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0.96</v>
+      </c>
+      <c r="G3" s="16">
+        <v>0.98</v>
+      </c>
+      <c r="H3" s="16">
+        <v>1.0180119999999999</v>
+      </c>
+      <c r="I3" s="17">
+        <v>0.98</v>
+      </c>
+      <c r="J3" s="16">
+        <v>0.98</v>
+      </c>
+      <c r="K3" s="16">
+        <v>117.249</v>
+      </c>
+      <c r="L3" s="16">
+        <v>3983.22</v>
+      </c>
+      <c r="M3" s="16">
+        <v>10642.5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3">
+        <v>60</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0.81666666666666599</v>
+      </c>
+      <c r="H4" s="16">
+        <v>1.4990140000000001</v>
+      </c>
+      <c r="I4" s="16">
+        <v>0.91666666666666596</v>
+      </c>
+      <c r="J4" s="16">
+        <v>0.81666666666666599</v>
+      </c>
+      <c r="K4" s="16">
+        <v>284.505</v>
+      </c>
+      <c r="L4" s="16">
+        <v>5980.9</v>
+      </c>
+      <c r="M4" s="16">
+        <v>15976.8</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="15">
+        <v>70</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0.82857142857142796</v>
+      </c>
+      <c r="H5" s="16">
+        <v>1.941019</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0.871428571428571</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0.82857142857142796</v>
+      </c>
+      <c r="K5" s="16">
+        <v>406.01600000000002</v>
+      </c>
+      <c r="L5" s="16">
+        <v>8113.21</v>
+      </c>
+      <c r="M5" s="16">
+        <v>21670.3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="15">
+        <v>80</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0.9375</v>
+      </c>
+      <c r="H6" s="16">
+        <v>2.4860159999999998</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0.9375</v>
+      </c>
+      <c r="J6" s="16">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="K6" s="16">
+        <v>544.57500000000005</v>
+      </c>
+      <c r="L6" s="16">
+        <v>10708.5</v>
+      </c>
+      <c r="M6" s="16">
+        <v>28599.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBF4646-B330-4EB2-ADAE-391DC1ECED08}">
   <dimension ref="C1:M4"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:M1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3363,13 +3669,13 @@
       <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -3382,7 +3688,7 @@
         <v>17</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>12</v>
@@ -3395,27 +3701,48 @@
       </c>
     </row>
     <row r="2" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="11">
+        <v>40</v>
+      </c>
       <c r="E2" s="3">
         <v>2</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="F2" s="13">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.80636200000000002</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="K2" s="4">
+        <v>368.82900000000001</v>
+      </c>
+      <c r="L2" s="3">
+        <v>4820.46</v>
+      </c>
+      <c r="M2" s="3">
+        <v>13653.2</v>
+      </c>
     </row>
     <row r="3" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="11">
+        <v>40</v>
+      </c>
       <c r="E3" s="3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="5"/>
+        <v>3</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="5"/>
@@ -3426,117 +3753,13 @@
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="11">
+        <v>40</v>
+      </c>
       <c r="E4" s="3">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BAADC1-DB68-49C1-9BD8-9D64DC3FC6C6}">
-  <dimension ref="C1:M4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F16:F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -3554,8 +3777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437DAEAD-FBFF-41D6-9A07-C729BCDC9FFE}">
   <dimension ref="C1:N4"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3576,14 +3799,14 @@
       <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>15</v>
@@ -3595,10 +3818,10 @@
         <v>13</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>12</v>
@@ -3612,10 +3835,7 @@
     </row>
     <row r="2" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3">
-        <v>2</v>
-      </c>
+      <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -3628,10 +3848,7 @@
     </row>
     <row r="3" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3">
-        <v>2</v>
-      </c>
+      <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="5"/>
       <c r="H3" s="3"/>
@@ -3644,10 +3861,7 @@
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3">
-        <v>2</v>
-      </c>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -3667,8 +3881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4544C202-F760-48C5-808B-1E418BC4CF42}">
   <dimension ref="C3:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3692,7 +3906,7 @@
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="6">
         <v>0.7</v>
@@ -3705,10 +3919,10 @@
     <row r="8" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C8" s="7"/>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.3">
@@ -3727,7 +3941,7 @@
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -3738,13 +3952,13 @@
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C14" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" s="3"/>
     </row>

--- a/source/experiments/result_analysis.xlsx
+++ b/source/experiments/result_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\TDG Matemáticas\secure-svm\source\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C11A2A-DC13-408A-A602-FB54C10A91C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B1AD31-6727-4067-9107-BCD8FC988B04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{59365EC7-1685-4DC8-86FF-705BE4135883}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{59365EC7-1685-4DC8-86FF-705BE4135883}"/>
   </bookViews>
   <sheets>
     <sheet name="Model selection" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
   <si>
     <t>Model</t>
   </si>
@@ -97,15 +97,6 @@
     <t>Secure</t>
   </si>
   <si>
-    <t>Training time</t>
-  </si>
-  <si>
-    <t>Data sent</t>
-  </si>
-  <si>
-    <t>Global data sent</t>
-  </si>
-  <si>
     <t>test-40r-2c</t>
   </si>
   <si>
@@ -123,6 +114,36 @@
   <si>
     <t xml:space="preserve">Test Accuracy - Secure </t>
   </si>
+  <si>
+    <t>test-40r-3c</t>
+  </si>
+  <si>
+    <t>test-40r-4c</t>
+  </si>
+  <si>
+    <t>test-40r-5c</t>
+  </si>
+  <si>
+    <t>test-40r-6c</t>
+  </si>
+  <si>
+    <t>Training time (hours)</t>
+  </si>
+  <si>
+    <t>Training time (min)</t>
+  </si>
+  <si>
+    <t>test_class_sep_060</t>
+  </si>
+  <si>
+    <t>test_class_sep_070</t>
+  </si>
+  <si>
+    <t>test_class_sep_080</t>
+  </si>
+  <si>
+    <t>test_class_sep_090</t>
+  </si>
 </sst>
 </file>
 
@@ -130,9 +151,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,8 +169,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,12 +185,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -225,11 +258,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -243,15 +313,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,6 +608,420 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Difficulty Experiments'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test Accuracy - Clear </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Difficulty Experiments'!$B$3:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>test_class_sep_060</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test_class_sep_070</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test_class_sep_080</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>test_class_sep_090</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Difficulty Experiments'!$G$3:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C5A1-4DC4-8553-5AB18973F307}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Difficulty Experiments'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test Accuracy - Secure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Difficulty Experiments'!$B$3:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>test_class_sep_060</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test_class_sep_070</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test_class_sep_080</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>test_class_sep_090</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Difficulty Experiments'!$J$3:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C5A1-4DC4-8553-5AB18973F307}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="630938223"/>
+        <c:axId val="381326527"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="630938223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="381326527"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="381326527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="630938223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1264,7 +1754,1936 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Row Experiments'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Training time - Secure (sec)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Row Experiments'!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Row Experiments'!$J$3:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>209.80799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117.249</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>284.505</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>406.01600000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>544.57500000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8236-48F9-B35D-70F8280DDADE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="626893951"/>
+        <c:axId val="517571023"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="626893951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517571023"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="517571023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="626893951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Row Experiments'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Training time - Clear (sec)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Row Experiments'!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Row Experiments'!$G$3:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.436561</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0180119999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4990140000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.941019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4860159999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E9F-4CB3-8C61-365E73D5DAED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="626241631"/>
+        <c:axId val="513078015"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="626241631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="513078015"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="513078015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="626241631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Row Experiments'!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Global data sent (MB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Row Experiments'!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Row Experiments'!$L$3:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>13653.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10642.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15976.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21670.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28599.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-422B-460E-9BBA-24F0AB786A50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="626942303"/>
+        <c:axId val="517569359"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="626942303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517569359"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="517569359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="626942303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Column Experiments'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Training time - Clear (sec)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Column Experiments'!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Column Experiments'!$G$3:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.436561</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72397800000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.765015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.731016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66876800000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5906-458C-9D67-AA78DC72FCB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="718926687"/>
+        <c:axId val="717212527"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="718926687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="717212527"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="717212527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="718926687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Column Experiments'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Training time - Secure (sec)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Column Experiments'!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Column Experiments'!$J$3:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>209.80799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.999099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>126.279</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>139.39699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>138.73699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2DF7-485F-9901-B95FE6CEC4B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="717018223"/>
+        <c:axId val="717201295"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="717018223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="717201295"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="717201295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="717018223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Difficulty Experiments'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Accuracy - Clear </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Difficulty Experiments'!$B$3:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>test_class_sep_060</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test_class_sep_070</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test_class_sep_080</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>test_class_sep_090</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Difficulty Experiments'!$F$3:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5ED7-4D39-A7D9-DD17A604DD5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Difficulty Experiments'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Accuracy - Secure </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Difficulty Experiments'!$B$3:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>test_class_sep_060</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test_class_sep_070</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test_class_sep_080</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>test_class_sep_090</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Difficulty Experiments'!$I$3:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5ED7-4D39-A7D9-DD17A604DD5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="636651327"/>
+        <c:axId val="625183391"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="636651327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="625183391"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="625183391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="636651327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1384,6 +3803,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1887,7 +4546,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2390,7 +5049,3593 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2998,6 +9243,273 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>708660</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27E6B22D-9D55-4D22-8E6A-EB0A8E835571}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>739140</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A33B62C-7A13-4C81-B8B0-64281C57F39B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>678180</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A122C3D-0174-4F32-A592-E08E34967A44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FAEA45F-8F6E-46A2-BF4A-00724E121546}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16AB8CA2-60DB-48B0-809D-62AC6699E93C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>769620</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{239D94B9-D9C2-4730-A3A0-45F01AAD5EFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1082040</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199FAD6A-42E4-4FC9-88E1-44329B1337FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3306,7 +9818,7 @@
   <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3410,479 +9922,712 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BAADC1-DB68-49C1-9BD8-9D64DC3FC6C6}">
-  <dimension ref="C1:M6"/>
+  <dimension ref="B2:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C1" s="14" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="14" t="s">
+      <c r="I2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="K2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="L2" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C2" s="19" t="s">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="14">
+        <v>40</v>
+      </c>
+      <c r="D3" s="14">
+        <v>2</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="F3" s="19">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="G3" s="18">
+        <v>1.436561</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="I3" s="18">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="J3" s="18">
+        <v>209.80799999999999</v>
+      </c>
+      <c r="K3" s="18">
+        <v>4820.46</v>
+      </c>
+      <c r="L3" s="18">
+        <v>13653.2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3">
+        <v>50</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0.96</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0.98</v>
+      </c>
+      <c r="G4" s="15">
+        <v>1.0180119999999999</v>
+      </c>
+      <c r="H4" s="16">
+        <v>0.98</v>
+      </c>
+      <c r="I4" s="15">
+        <v>0.98</v>
+      </c>
+      <c r="J4" s="15">
+        <v>117.249</v>
+      </c>
+      <c r="K4" s="15">
+        <v>3983.22</v>
+      </c>
+      <c r="L4" s="15">
+        <v>10642.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3">
+        <v>60</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0.81666666666666599</v>
+      </c>
+      <c r="G5" s="15">
+        <v>1.4990140000000001</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0.91666666666666596</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0.81666666666666599</v>
+      </c>
+      <c r="J5" s="15">
+        <v>284.505</v>
+      </c>
+      <c r="K5" s="15">
+        <v>5980.9</v>
+      </c>
+      <c r="L5" s="15">
+        <v>15976.8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="19">
-        <v>40</v>
-      </c>
-      <c r="E2" s="19">
+      <c r="C6" s="14">
+        <v>70</v>
+      </c>
+      <c r="D6" s="3">
         <v>2</v>
       </c>
-      <c r="F2" s="20">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="G2" s="21">
-        <v>0.9</v>
-      </c>
-      <c r="H2" s="20">
-        <v>0.80636200000000002</v>
-      </c>
-      <c r="I2" s="20">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="J2" s="20">
-        <v>0.85</v>
-      </c>
-      <c r="K2" s="20">
-        <v>368.82900000000001</v>
-      </c>
-      <c r="L2" s="20">
-        <v>4820.46</v>
-      </c>
-      <c r="M2" s="20">
-        <v>13653.2</v>
+      <c r="E6" s="15">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0.82857142857142796</v>
+      </c>
+      <c r="G6" s="15">
+        <v>1.941019</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0.871428571428571</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0.82857142857142796</v>
+      </c>
+      <c r="J6" s="15">
+        <v>406.01600000000002</v>
+      </c>
+      <c r="K6" s="15">
+        <v>8113.21</v>
+      </c>
+      <c r="L6" s="15">
+        <v>21670.3</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C3" s="3" t="s">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="3">
-        <v>50</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="C7" s="14">
+        <v>80</v>
+      </c>
+      <c r="D7" s="3">
         <v>2</v>
       </c>
-      <c r="F3" s="17">
-        <v>0.96</v>
-      </c>
-      <c r="G3" s="16">
-        <v>0.98</v>
-      </c>
-      <c r="H3" s="16">
-        <v>1.0180119999999999</v>
-      </c>
-      <c r="I3" s="17">
-        <v>0.98</v>
-      </c>
-      <c r="J3" s="16">
-        <v>0.98</v>
-      </c>
-      <c r="K3" s="16">
-        <v>117.249</v>
-      </c>
-      <c r="L3" s="16">
-        <v>3983.22</v>
-      </c>
-      <c r="M3" s="16">
-        <v>10642.5</v>
-      </c>
-    </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="3">
-        <v>60</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2</v>
-      </c>
-      <c r="F4" s="18">
-        <v>0.93333333333333302</v>
-      </c>
-      <c r="G4" s="16">
-        <v>0.81666666666666599</v>
-      </c>
-      <c r="H4" s="16">
-        <v>1.4990140000000001</v>
-      </c>
-      <c r="I4" s="16">
-        <v>0.91666666666666596</v>
-      </c>
-      <c r="J4" s="16">
-        <v>0.81666666666666599</v>
-      </c>
-      <c r="K4" s="16">
-        <v>284.505</v>
-      </c>
-      <c r="L4" s="16">
-        <v>5980.9</v>
-      </c>
-      <c r="M4" s="16">
-        <v>15976.8</v>
-      </c>
-    </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="15">
-        <v>70</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2</v>
-      </c>
-      <c r="F5" s="16">
-        <v>0.85714285714285698</v>
-      </c>
-      <c r="G5" s="16">
-        <v>0.82857142857142796</v>
-      </c>
-      <c r="H5" s="16">
-        <v>1.941019</v>
-      </c>
-      <c r="I5" s="16">
-        <v>0.871428571428571</v>
-      </c>
-      <c r="J5" s="16">
-        <v>0.82857142857142796</v>
-      </c>
-      <c r="K5" s="16">
-        <v>406.01600000000002</v>
-      </c>
-      <c r="L5" s="16">
-        <v>8113.21</v>
-      </c>
-      <c r="M5" s="16">
-        <v>21670.3</v>
-      </c>
-    </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="15">
-        <v>80</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2</v>
-      </c>
-      <c r="F6" s="16">
+      <c r="E7" s="15">
         <v>0.96250000000000002</v>
       </c>
-      <c r="G6" s="16">
+      <c r="F7" s="15">
         <v>0.9375</v>
       </c>
-      <c r="H6" s="16">
+      <c r="G7" s="15">
         <v>2.4860159999999998</v>
       </c>
-      <c r="I6" s="16">
+      <c r="H7" s="15">
         <v>0.9375</v>
       </c>
-      <c r="J6" s="16">
+      <c r="I7" s="15">
         <v>0.92500000000000004</v>
       </c>
-      <c r="K6" s="16">
+      <c r="J7" s="15">
         <v>544.57500000000005</v>
       </c>
-      <c r="L6" s="16">
+      <c r="K7" s="15">
         <v>10708.5</v>
       </c>
-      <c r="M6" s="16">
+      <c r="L7" s="15">
         <v>28599.4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBF4646-B330-4EB2-ADAE-391DC1ECED08}">
-  <dimension ref="C1:M4"/>
+  <dimension ref="B2:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C1" s="2" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="11">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="14">
         <v>40</v>
       </c>
-      <c r="E2" s="3">
+      <c r="D3" s="14">
         <v>2</v>
       </c>
-      <c r="F2" s="13">
+      <c r="E3" s="18">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="F3" s="19">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="G3" s="18">
+        <v>1.436561</v>
+      </c>
+      <c r="H3" s="18">
         <v>0.82499999999999996</v>
       </c>
-      <c r="G2" s="5">
+      <c r="I3" s="18">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="J3" s="18">
+        <v>209.80799999999999</v>
+      </c>
+      <c r="K3" s="18">
+        <v>4820.46</v>
+      </c>
+      <c r="L3" s="18">
+        <v>13653.2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="11">
+        <v>40</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.875</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0.72397800000000001</v>
+      </c>
+      <c r="H4" s="16">
+        <v>0.875</v>
+      </c>
+      <c r="I4" s="15">
+        <v>0.85</v>
+      </c>
+      <c r="J4" s="15">
+        <v>71.999099999999999</v>
+      </c>
+      <c r="K4" s="15">
+        <v>2661.37</v>
+      </c>
+      <c r="L4" s="15">
+        <v>7112.76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="11">
+        <v>40</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="20">
         <v>0.9</v>
       </c>
-      <c r="H2" s="4">
-        <v>0.80636200000000002</v>
-      </c>
-      <c r="I2" s="3">
+      <c r="F5" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0.765015</v>
+      </c>
+      <c r="H5" s="20">
+        <v>0.95</v>
+      </c>
+      <c r="I5" s="20">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="J5" s="20">
+        <v>126.279</v>
+      </c>
+      <c r="K5" s="20">
+        <v>2860.91</v>
+      </c>
+      <c r="L5" s="20">
+        <v>7645.82</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="11">
+        <v>40</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5</v>
+      </c>
+      <c r="E6" s="20">
+        <v>0.875</v>
+      </c>
+      <c r="F6" s="20">
         <v>0.77500000000000002</v>
       </c>
-      <c r="J2" s="3">
+      <c r="G6" s="20">
+        <v>0.731016</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="I6" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="J6" s="20">
+        <v>139.39699999999999</v>
+      </c>
+      <c r="K6" s="20">
+        <v>3036.6</v>
+      </c>
+      <c r="L6" s="20">
+        <v>8115.15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="11">
+        <v>40</v>
+      </c>
+      <c r="D7" s="3">
+        <v>6</v>
+      </c>
+      <c r="E7" s="20">
         <v>0.85</v>
       </c>
-      <c r="K2" s="4">
-        <v>368.82900000000001</v>
-      </c>
-      <c r="L2" s="3">
-        <v>4820.46</v>
-      </c>
-      <c r="M2" s="3">
-        <v>13653.2</v>
-      </c>
-    </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C3" s="3"/>
-      <c r="D3" s="11">
-        <v>40</v>
-      </c>
-      <c r="E3" s="3">
-        <v>3</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C4" s="3"/>
-      <c r="D4" s="11">
-        <v>40</v>
-      </c>
-      <c r="E4" s="3">
-        <v>4</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="F7" s="20">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="G7" s="20">
+        <v>0.66876800000000003</v>
+      </c>
+      <c r="H7" s="20">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="I7" s="20">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="J7" s="20">
+        <v>138.73699999999999</v>
+      </c>
+      <c r="K7" s="20">
+        <v>3067.28</v>
+      </c>
+      <c r="L7" s="20">
+        <v>8197.0400000000009</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437DAEAD-FBFF-41D6-9A07-C729BCDC9FFE}">
-  <dimension ref="C1:N4"/>
+  <dimension ref="B2:M7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C1" s="2" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3">
+        <v>50</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1.074983</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="K3" s="4">
+        <v>195.125</v>
+      </c>
+      <c r="L3" s="3">
+        <v>5194.72</v>
+      </c>
+      <c r="M3" s="3">
+        <v>13879</v>
+      </c>
     </row>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="3">
+        <v>50</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1.00502</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="K4" s="3">
+        <v>193.05</v>
+      </c>
+      <c r="L4" s="3">
+        <v>5194.72</v>
+      </c>
+      <c r="M4" s="3">
+        <v>13879</v>
+      </c>
     </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1.0629999999999999</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="K5" s="3">
+        <v>195.00800000000001</v>
+      </c>
+      <c r="L5" s="3">
+        <v>5194.72</v>
+      </c>
+      <c r="M5" s="3">
+        <v>13879</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="3">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1.05118</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="K6" s="3">
+        <v>197.03100000000001</v>
+      </c>
+      <c r="L6" s="3">
+        <v>5194.72</v>
+      </c>
+      <c r="M6" s="3">
+        <v>13879</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4544C202-F760-48C5-808B-1E418BC4CF42}">
-  <dimension ref="C3:E14"/>
+  <dimension ref="C3:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3895,14 +10640,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="3">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
@@ -3926,41 +10673,79 @@
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="D9" s="22">
+        <v>0.84905660377358405</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0.84905660377358405</v>
+      </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C10" s="2" t="s">
+    <row r="10" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="D10" s="23">
+        <v>0.78021978021978</v>
+      </c>
+      <c r="E10" s="23">
+        <v>0.76923076923076905</v>
+      </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="C11" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="21">
+        <v>31.579975999999998</v>
+      </c>
+      <c r="E11" s="21">
+        <v>9184.7999999999993</v>
+      </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="15">
+        <f>D11/60</f>
+        <v>0.52633293333333331</v>
+      </c>
+      <c r="E12" s="15">
+        <f>E11/60</f>
+        <v>153.07999999999998</v>
+      </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="3"/>
+      <c r="C13" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="15">
+        <f>D12/60</f>
+        <v>8.7722155555555546E-3</v>
+      </c>
+      <c r="E13" s="15">
+        <f>E12/60</f>
+        <v>2.551333333333333</v>
+      </c>
     </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="3"/>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3">
+        <v>190934</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3">
+        <v>509696</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source/experiments/result_analysis.xlsx
+++ b/source/experiments/result_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\TDG Matemáticas\secure-svm\source\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B1AD31-6727-4067-9107-BCD8FC988B04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5397F0C1-E4E4-4D76-980B-4D4D6869636E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{59365EC7-1685-4DC8-86FF-705BE4135883}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{59365EC7-1685-4DC8-86FF-705BE4135883}"/>
   </bookViews>
   <sheets>
     <sheet name="Model selection" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
   <si>
     <t>Model</t>
   </si>
@@ -144,14 +144,27 @@
   <si>
     <t>test_class_sep_090</t>
   </si>
+  <si>
+    <t xml:space="preserve">GB </t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data sent </t>
+  </si>
+  <si>
+    <t>Global data sent</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -299,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -321,13 +334,16 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,7 +467,7 @@
             <c:numRef>
               <c:f>'Model selection'!$F$3:$F$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>94.512799999999999</c:v>
@@ -556,7 +572,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -644,6 +660,1305 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Column Experiments'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Training time - Clear (sec)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Column Experiments'!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Column Experiments'!$G$3:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.436561</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72397800000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.765015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.731016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66876800000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5906-458C-9D67-AA78DC72FCB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="718926687"/>
+        <c:axId val="717212527"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="718926687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="717212527"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="717212527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="718926687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Column Experiments'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Training time - Secure (sec)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Column Experiments'!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Column Experiments'!$J$3:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>209.80799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.999099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>126.279</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>139.39699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>138.73699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2DF7-485F-9901-B95FE6CEC4B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="717018223"/>
+        <c:axId val="717201295"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="717018223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="717201295"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="717201295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="717018223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Column Experiments'!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Data sent (MB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Column Experiments'!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Column Experiments'!$K$3:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4820.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2661.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2860.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3036.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3067.28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CDB5-42ED-939E-F4D07AD60BE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="526050319"/>
+        <c:axId val="522747567"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="526050319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="522747567"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="522747567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="526050319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Difficulty Experiments'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Accuracy - Clear </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Difficulty Experiments'!$B$3:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>test_class_sep_060</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test_class_sep_070</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test_class_sep_080</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>test_class_sep_090</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Difficulty Experiments'!$F$3:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5ED7-4D39-A7D9-DD17A604DD5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Difficulty Experiments'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Accuracy - Secure </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Difficulty Experiments'!$B$3:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>test_class_sep_060</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test_class_sep_070</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test_class_sep_080</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>test_class_sep_090</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Difficulty Experiments'!$I$3:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5ED7-4D39-A7D9-DD17A604DD5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="636651327"/>
+        <c:axId val="625183391"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="636651327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="625183391"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="625183391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="636651327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -1153,9 +2468,9 @@
             <c:numRef>
               <c:f>'Model selection'!$E$3:$E$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="#,##0.000">
+                <c:pt idx="0">
                   <c:v>2.71739</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1258,7 +2573,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1466,7 +2781,7 @@
             <c:numRef>
               <c:f>'Model selection'!$C$3:$C$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.82</c:v>
@@ -1531,7 +2846,7 @@
             <c:numRef>
               <c:f>'Model selection'!$D$3:$D$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.88</c:v>
@@ -1636,7 +2951,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2654,6 +3969,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Acurracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2686,87 +4026,161 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Column Experiments'!$G$2</c:f>
+              <c:f>'Row Experiments'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Training time - Clear (sec)</c:v>
+                  <c:v>Train Accuracy - Clear </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>'Column Experiments'!$D$3:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>'Row Experiments'!$B$3:$B$7</c:f>
+              <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>test-40r-2c</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>test-50r-2c</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>test-60r-2c</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>test-70r-2c</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>test-80r-2c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Column Experiments'!$G$3:$G$7</c:f>
+              <c:f>'Row Experiments'!$E$3:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.436561</c:v>
+                  <c:v>0.77500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.72397800000000001</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.765015</c:v>
+                  <c:v>0.93333333333333302</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.731016</c:v>
+                  <c:v>0.85714285714285698</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66876800000000003</c:v>
+                  <c:v>0.96250000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5906-458C-9D67-AA78DC72FCB0}"/>
+              <c16:uniqueId val="{00000000-D2E5-4B77-8D9B-A6AF9BB3D5F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Row Experiments'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Accuracy - Secure </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Row Experiments'!$B$3:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>test-40r-2c</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test-50r-2c</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test-60r-2c</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>test-70r-2c</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>test-80r-2c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Row Experiments'!$H$3:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91666666666666596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.871428571428571</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D2E5-4B77-8D9B-A6AF9BB3D5F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2778,12 +4192,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="718926687"/>
-        <c:axId val="717212527"/>
-      </c:lineChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="488106272"/>
+        <c:axId val="485779168"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="718926687"/>
+        <c:axId val="488106272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2826,7 +4241,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="717212527"/>
+        <c:crossAx val="485779168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2834,7 +4249,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="717212527"/>
+        <c:axId val="485779168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2885,7 +4300,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="718926687"/>
+        <c:crossAx val="488106272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2897,6 +4312,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2935,301 +4381,6 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Column Experiments'!$J$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Training time - Secure (sec)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Column Experiments'!$D$3:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Column Experiments'!$J$3:$J$7</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>209.80799999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>71.999099999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>126.279</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>139.39699999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>138.73699999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2DF7-485F-9901-B95FE6CEC4B4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="717018223"/>
-        <c:axId val="717201295"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="717018223"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="717201295"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="717201295"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="717018223"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -3310,11 +4461,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Difficulty Experiments'!$F$2</c:f>
+              <c:f>'Row Experiments'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Train Accuracy - Clear </c:v>
+                  <c:v>Test Accuracy - Clear </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3331,48 +4482,54 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Difficulty Experiments'!$B$3:$B$6</c:f>
+              <c:f>'Row Experiments'!$B$3:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>test_class_sep_060</c:v>
+                  <c:v>test-40r-2c</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>test_class_sep_070</c:v>
+                  <c:v>test-50r-2c</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>test_class_sep_080</c:v>
+                  <c:v>test-60r-2c</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>test_class_sep_090</c:v>
+                  <c:v>test-70r-2c</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>test-80r-2c</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Difficulty Experiments'!$F$3:$F$6</c:f>
+              <c:f>'Row Experiments'!$F$3:$F$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.9</c:v>
+                  <c:v>0.92500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96</c:v>
+                  <c:v>0.81666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96</c:v>
+                  <c:v>0.82857142857142796</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5ED7-4D39-A7D9-DD17A604DD5C}"/>
+              <c16:uniqueId val="{00000000-37A8-4C20-ACA5-9FA64F9E527A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3381,11 +4538,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Difficulty Experiments'!$I$2</c:f>
+              <c:f>'Row Experiments'!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Train Accuracy - Secure </c:v>
+                  <c:v>Test Accuracy - Secure </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3402,48 +4559,54 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Difficulty Experiments'!$B$3:$B$6</c:f>
+              <c:f>'Row Experiments'!$B$3:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>test_class_sep_060</c:v>
+                  <c:v>test-40r-2c</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>test_class_sep_070</c:v>
+                  <c:v>test-50r-2c</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>test_class_sep_080</c:v>
+                  <c:v>test-60r-2c</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>test_class_sep_090</c:v>
+                  <c:v>test-70r-2c</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>test-80r-2c</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Difficulty Experiments'!$I$3:$I$6</c:f>
+              <c:f>'Row Experiments'!$I$3:$I$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.9</c:v>
+                  <c:v>0.82499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96</c:v>
+                  <c:v>0.81666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96</c:v>
+                  <c:v>0.82857142857142796</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92500000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5ED7-4D39-A7D9-DD17A604DD5C}"/>
+              <c16:uniqueId val="{00000001-37A8-4C20-ACA5-9FA64F9E527A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3457,11 +4620,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="636651327"/>
-        <c:axId val="625183391"/>
+        <c:axId val="500442208"/>
+        <c:axId val="499918432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="636651327"/>
+        <c:axId val="500442208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3504,7 +4667,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625183391"/>
+        <c:crossAx val="499918432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3512,7 +4675,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="625183391"/>
+        <c:axId val="499918432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3532,7 +4695,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3563,7 +4726,440 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="636651327"/>
+        <c:crossAx val="500442208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Training time comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Row Experiments'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Training time - Clear (sec)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Row Experiments'!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Row Experiments'!$G$3:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.436561</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0180119999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4990140000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.941019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4860159999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-26A1-470B-B22F-C379FEA77C83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Row Experiments'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Training time - Secure (sec)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Row Experiments'!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Row Experiments'!$J$3:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>209.80799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117.249</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>284.505</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>406.01600000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>544.57500000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-26A1-470B-B22F-C379FEA77C83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="500479008"/>
+        <c:axId val="392531360"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="500479008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="392531360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="392531360"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="500479008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3684,6 +5280,166 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4547,7 +6303,7 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4655,6 +6411,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4665,6 +6426,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4696,6 +6462,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5049,8 +6818,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5158,6 +6927,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5168,6 +6942,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -5199,6 +6978,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5552,8 +7334,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5661,6 +7443,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5671,6 +7458,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -5702,6 +7494,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6055,8 +7850,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6164,11 +7959,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6179,11 +7969,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -6215,9 +8000,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6571,8 +8353,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6680,11 +8462,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6695,11 +8472,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -6731,9 +8503,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7087,8 +8856,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7196,11 +8965,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7211,11 +8975,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -7247,9 +9006,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7603,8 +9359,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7712,11 +9468,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7727,11 +9478,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -7763,9 +9509,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8119,7 +9862,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8635,8 +10378,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8744,6 +10487,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -8754,6 +10502,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -8785,6 +10538,2047 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9361,6 +13155,114 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>777240</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9DC642B-A9A5-4F9E-AD46-15EC5C04AFEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1242060</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6175585B-808C-4480-BBD8-D2B704D1D292}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68175CB5-8C8B-4190-AF4A-8D1F6728650F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9368,16 +13270,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>746760</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1021080</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9404,16 +13306,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1036320</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>670560</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9433,6 +13335,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1303020</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6190704F-10E0-4EE3-886F-44A23360DBE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9818,7 +13756,7 @@
   <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9855,19 +13793,19 @@
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="27">
         <v>0.82</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="27">
         <v>0.88</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="27">
         <v>2.71739</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="27">
         <v>94.512799999999999</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="27">
         <v>254.59700000000001</v>
       </c>
     </row>
@@ -9875,19 +13813,19 @@
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="28">
         <v>0.96</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="27">
         <v>0.98</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="27">
         <v>476.06200000000001</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="27">
         <v>12524</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="27">
         <v>34697.9</v>
       </c>
     </row>
@@ -9895,19 +13833,19 @@
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="27">
         <v>0.98</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="27">
         <v>0.98</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="27">
         <v>187.40100000000001</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="27">
         <v>5194.72</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="27">
         <v>13879</v>
       </c>
     </row>
@@ -9922,10 +13860,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BAADC1-DB68-49C1-9BD8-9D64DC3FC6C6}">
-  <dimension ref="B2:L7"/>
+  <dimension ref="B2:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9943,7 +13881,7 @@
     <col min="12" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
@@ -9978,7 +13916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
         <v>22</v>
       </c>
@@ -10012,8 +13950,12 @@
       <c r="L3" s="18">
         <v>13653.2</v>
       </c>
+      <c r="M3">
+        <f>J3*10</f>
+        <v>2098.08</v>
+      </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
@@ -10047,8 +13989,12 @@
       <c r="L4" s="15">
         <v>10642.5</v>
       </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M7" si="0">J4*10</f>
+        <v>1172.49</v>
+      </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
@@ -10082,8 +14028,12 @@
       <c r="L5" s="15">
         <v>15976.8</v>
       </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>2845.05</v>
+      </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
@@ -10117,8 +14067,12 @@
       <c r="L6" s="15">
         <v>21670.3</v>
       </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>4060.1600000000003</v>
+      </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
@@ -10151,6 +14105,20 @@
       </c>
       <c r="L7" s="15">
         <v>28599.4</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>5445.75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <f>SUM(M3:M7)</f>
+        <v>15621.53</v>
+      </c>
+      <c r="N8">
+        <f>M8/(60*60)</f>
+        <v>4.3393138888888894</v>
       </c>
     </row>
   </sheetData>
@@ -10161,10 +14129,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBF4646-B330-4EB2-ADAE-391DC1ECED08}">
-  <dimension ref="B2:L7"/>
+  <dimension ref="B2:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10182,7 +14150,7 @@
     <col min="12" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
@@ -10217,7 +14185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
         <v>22</v>
       </c>
@@ -10251,8 +14219,12 @@
       <c r="L3" s="18">
         <v>13653.2</v>
       </c>
+      <c r="M3">
+        <f>J3*10</f>
+        <v>2098.08</v>
+      </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>28</v>
       </c>
@@ -10286,8 +14258,12 @@
       <c r="L4" s="15">
         <v>7112.76</v>
       </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M7" si="0">J4*10</f>
+        <v>719.99099999999999</v>
+      </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
@@ -10321,8 +14297,12 @@
       <c r="L5" s="20">
         <v>7645.82</v>
       </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>1262.79</v>
+      </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
@@ -10356,8 +14336,12 @@
       <c r="L6" s="20">
         <v>8115.15</v>
       </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>1393.9699999999998</v>
+      </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
@@ -10390,6 +14374,20 @@
       </c>
       <c r="L7" s="20">
         <v>8197.0400000000009</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>1387.37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <f>SUM(M3:M7)</f>
+        <v>6862.201</v>
+      </c>
+      <c r="N8">
+        <f>M8/(60*60)</f>
+        <v>1.9061669444444445</v>
       </c>
     </row>
   </sheetData>
@@ -10402,8 +14400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437DAEAD-FBFF-41D6-9A07-C729BCDC9FFE}">
   <dimension ref="B2:M7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10626,13 +14624,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4544C202-F760-48C5-808B-1E418BC4CF42}">
   <dimension ref="C3:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:5" x14ac:dyDescent="0.3">
@@ -10673,10 +14673,10 @@
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>0.84905660377358405</v>
       </c>
       <c r="E9" s="15">
@@ -10684,67 +14684,83 @@
       </c>
     </row>
     <row r="10" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="22">
         <v>0.78021978021978</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <v>0.76923076923076905</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="30">
         <v>31.579975999999998</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="30">
         <v>9184.7999999999993</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="29">
         <f>D11/60</f>
         <v>0.52633293333333331</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="29">
         <f>E11/60</f>
         <v>153.07999999999998</v>
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="29">
         <f>D12/60</f>
         <v>8.7722155555555546E-3</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="29">
         <f>E12/60</f>
         <v>2.551333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D16" s="3">
         <v>190934</v>
       </c>
+      <c r="E16" s="29">
+        <f>D16/1024</f>
+        <v>186.458984375</v>
+      </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" s="9" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="D17" s="3">
         <v>509696</v>
+      </c>
+      <c r="E17" s="29">
+        <f>D17/1024</f>
+        <v>497.75</v>
       </c>
     </row>
   </sheetData>

--- a/source/experiments/result_analysis.xlsx
+++ b/source/experiments/result_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\TDG Matemáticas\secure-svm\source\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5397F0C1-E4E4-4D76-980B-4D4D6869636E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74603590-3EA5-446A-ACA2-4192D117172E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{59365EC7-1685-4DC8-86FF-705BE4135883}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{59365EC7-1685-4DC8-86FF-705BE4135883}"/>
   </bookViews>
   <sheets>
     <sheet name="Model selection" sheetId="1" r:id="rId1"/>
@@ -14131,7 +14131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBF4646-B330-4EB2-ADAE-391DC1ECED08}">
   <dimension ref="B2:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -14400,8 +14400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437DAEAD-FBFF-41D6-9A07-C729BCDC9FFE}">
   <dimension ref="B2:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:J27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="F2:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/source/experiments/result_analysis.xlsx
+++ b/source/experiments/result_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\TDG Matemáticas\secure-svm\source\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74603590-3EA5-446A-ACA2-4192D117172E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E256A72-2C71-42FA-BEEE-6CC8A29FD4BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{59365EC7-1685-4DC8-86FF-705BE4135883}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{59365EC7-1685-4DC8-86FF-705BE4135883}"/>
   </bookViews>
   <sheets>
     <sheet name="Model selection" sheetId="1" r:id="rId1"/>
@@ -161,10 +161,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -312,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -340,10 +339,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,6 +374,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Data</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> sent in the training phase</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -412,10 +440,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.0692038495188101E-2"/>
+          <c:x val="0.24493163844715493"/>
           <c:y val="0.19486111111111112"/>
-          <c:w val="0.86486351706036746"/>
-          <c:h val="0.72088764946048411"/>
+          <c:w val="0.69333996649111673"/>
+          <c:h val="0.57477064220183494"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -467,7 +495,7 @@
             <c:numRef>
               <c:f>'Model selection'!$F$3:$F$5</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>94.512799999999999</c:v>
@@ -507,6 +535,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Algorithm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -554,6 +637,7 @@
       <c:valAx>
         <c:axId val="90531247"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -572,7 +656,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Data</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> sent (MB)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2372,6 +2516,401 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Accuracy for each</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> implementation </a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Real Experiments'!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Real Experiments'!$C$9:$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Train Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Test Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Real Experiments'!$D$9:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.84905660377358405</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78021978021978</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A4D-4837-889E-B80D2AC37BB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Real Experiments'!$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Secure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Real Experiments'!$C$9:$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Train Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Test Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Real Experiments'!$E$9:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.84905660377358405</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76923076923076905</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1A4D-4837-889E-B80D2AC37BB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="666992512"/>
+        <c:axId val="599042224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="666992512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599042224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="599042224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="666992512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -2387,6 +2926,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Trainig time for each algorithm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2468,7 +3032,7 @@
             <c:numRef>
               <c:f>'Model selection'!$E$3:$E$5</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>2.71739</c:v>
@@ -2508,6 +3072,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Algorithm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2555,6 +3174,7 @@
       <c:valAx>
         <c:axId val="194047359"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2573,7 +3193,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Training</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> time (sec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2695,8 +3375,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES"/>
-              <a:t>Accuracy</a:t>
+              <a:t>Training and</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> test accuracy for each algorithm</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2781,7 +3466,7 @@
             <c:numRef>
               <c:f>'Model selection'!$C$3:$C$5</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.82</c:v>
@@ -2846,7 +3531,7 @@
             <c:numRef>
               <c:f>'Model selection'!$D$3:$D$5</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.88</c:v>
@@ -2886,6 +3571,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Algorithm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2951,7 +3691,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5479,6 +6274,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8856,6 +9691,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -12943,9 +14281,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12973,15 +14311,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
+      <xdr:colOff>548640</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13008,16 +14346,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13456,6 +14794,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A361FB71-480D-4444-9B3C-AF5AE0B3CB8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -13756,7 +15135,7 @@
   <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13813,7 +15192,7 @@
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="29">
         <v>0.96</v>
       </c>
       <c r="D4" s="27">
@@ -14131,7 +15510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBF4646-B330-4EB2-ADAE-391DC1ECED08}">
   <dimension ref="B2:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -14400,8 +15779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437DAEAD-FBFF-41D6-9A07-C729BCDC9FFE}">
   <dimension ref="B2:M7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="F2:K6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14625,7 +16004,7 @@
   <dimension ref="C3:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14698,10 +16077,10 @@
       <c r="C11" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="28">
         <v>31.579975999999998</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="28">
         <v>9184.7999999999993</v>
       </c>
     </row>
@@ -14709,11 +16088,11 @@
       <c r="C12" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="27">
         <f>D11/60</f>
         <v>0.52633293333333331</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="27">
         <f>E11/60</f>
         <v>153.07999999999998</v>
       </c>
@@ -14722,11 +16101,11 @@
       <c r="C13" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="27">
         <f>D12/60</f>
         <v>8.7722155555555546E-3</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="27">
         <f>E12/60</f>
         <v>2.551333333333333</v>
       </c>
@@ -14746,7 +16125,7 @@
       <c r="D16" s="3">
         <v>190934</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="27">
         <f>D16/1024</f>
         <v>186.458984375</v>
       </c>
@@ -14758,12 +16137,13 @@
       <c r="D17" s="3">
         <v>509696</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="27">
         <f>D17/1024</f>
         <v>497.75</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/source/experiments/result_analysis.xlsx
+++ b/source/experiments/result_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\TDG Matemáticas\secure-svm\source\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E256A72-2C71-42FA-BEEE-6CC8A29FD4BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7C663A-9DF5-4351-871E-4957096BDACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{59365EC7-1685-4DC8-86FF-705BE4135883}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59365EC7-1685-4DC8-86FF-705BE4135883}"/>
   </bookViews>
   <sheets>
     <sheet name="Model selection" sheetId="1" r:id="rId1"/>
@@ -3035,13 +3035,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.71739</c:v>
+                  <c:v>1.7221299999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>476.06200000000001</c:v>
+                  <c:v>40.429400000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>187.40100000000001</c:v>
+                  <c:v>28.517499999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3469,13 +3469,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.82</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3540,7 +3540,7 @@
                   <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15134,8 +15134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18DF82E-5A11-4D71-8644-BB844A341599}">
   <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15173,13 +15173,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="27">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="D3" s="27">
         <v>0.88</v>
       </c>
       <c r="E3" s="27">
-        <v>2.71739</v>
+        <v>1.7221299999999999</v>
       </c>
       <c r="F3" s="27">
         <v>94.512799999999999</v>
@@ -15199,7 +15199,7 @@
         <v>0.98</v>
       </c>
       <c r="E4" s="27">
-        <v>476.06200000000001</v>
+        <v>40.429400000000001</v>
       </c>
       <c r="F4" s="27">
         <v>12524</v>
@@ -15213,13 +15213,13 @@
         <v>8</v>
       </c>
       <c r="C5" s="27">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="D5" s="27">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="E5" s="27">
-        <v>187.40100000000001</v>
+        <v>28.517499999999998</v>
       </c>
       <c r="F5" s="27">
         <v>5194.72</v>
@@ -15779,7 +15779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437DAEAD-FBFF-41D6-9A07-C729BCDC9FFE}">
   <dimension ref="B2:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>

--- a/source/experiments/result_analysis.xlsx
+++ b/source/experiments/result_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\TDG Matemáticas\secure-svm\source\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7C663A-9DF5-4351-871E-4957096BDACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C310DC-E3ED-40FB-AE2C-64FCB64F7937}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59365EC7-1685-4DC8-86FF-705BE4135883}"/>
   </bookViews>
@@ -208,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -307,11 +307,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -342,6 +353,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,13 +510,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>94.512799999999999</c:v>
+                  <c:v>62.1633</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12524</c:v>
+                  <c:v>851.11300000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5194.72</c:v>
+                  <c:v>708.95100000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2946,7 +2958,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Trainig time for each algorithm</a:t>
+              <a:t>Training time for each algorithm</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3041,7 +3053,7 @@
                   <c:v>40.429400000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.517499999999998</c:v>
+                  <c:v>30.488399999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3475,7 +3487,7 @@
                   <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3540,7 +3552,7 @@
                   <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15132,10 +15144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18DF82E-5A11-4D71-8644-BB844A341599}">
-  <dimension ref="B2:G12"/>
+  <dimension ref="B2:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15148,7 +15160,7 @@
     <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -15168,7 +15180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
@@ -15182,13 +15194,17 @@
         <v>1.7221299999999999</v>
       </c>
       <c r="F3" s="27">
-        <v>94.512799999999999</v>
+        <v>62.1633</v>
       </c>
       <c r="G3" s="27">
-        <v>254.59700000000001</v>
+        <v>167.45599999999999</v>
+      </c>
+      <c r="I3">
+        <f>E4/E3</f>
+        <v>23.476392606829915</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -15202,33 +15218,37 @@
         <v>40.429400000000001</v>
       </c>
       <c r="F4" s="27">
-        <v>12524</v>
-      </c>
-      <c r="G4" s="27">
-        <v>34697.9</v>
+        <v>851.11300000000006</v>
+      </c>
+      <c r="G4" s="30">
+        <v>2351.8200000000002</v>
+      </c>
+      <c r="I4">
+        <f>E5/E3</f>
+        <v>17.703889950236043</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="27">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="D5" s="27">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="E5" s="27">
-        <v>28.517499999999998</v>
+        <v>30.488399999999999</v>
       </c>
       <c r="F5" s="27">
-        <v>5194.72</v>
+        <v>708.95100000000002</v>
       </c>
       <c r="G5" s="27">
-        <v>13879</v>
+        <v>1894.49</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
     </row>
   </sheetData>
@@ -15241,7 +15261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BAADC1-DB68-49C1-9BD8-9D64DC3FC6C6}">
   <dimension ref="B2:N8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
